--- a/Code/Results/Cases/Case_2_196/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_196/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001459919766684</v>
+        <v>1.030861739642096</v>
       </c>
       <c r="D2">
-        <v>1.018375021364285</v>
+        <v>1.035023953272568</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9783926770636293</v>
+        <v>1.02945350125632</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041157740955251</v>
+        <v>1.035029052895697</v>
       </c>
       <c r="J2">
-        <v>1.023597052395307</v>
+        <v>1.036000645282986</v>
       </c>
       <c r="K2">
-        <v>1.029584163519389</v>
+        <v>1.037821745724467</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9901614760325764</v>
+        <v>1.032267367746458</v>
       </c>
       <c r="N2">
-        <v>1.011535482567928</v>
+        <v>1.015951985150247</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006697490468495</v>
+        <v>1.031903166962125</v>
       </c>
       <c r="D3">
-        <v>1.022291750830018</v>
+        <v>1.035816745775685</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9863342050760041</v>
+        <v>1.031127590581169</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042820944119201</v>
+        <v>1.035296101574965</v>
       </c>
       <c r="J3">
-        <v>1.027007225489405</v>
+        <v>1.036683236295808</v>
       </c>
       <c r="K3">
-        <v>1.03264713340228</v>
+        <v>1.03842389133978</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.997144981018373</v>
+        <v>1.03374727638474</v>
       </c>
       <c r="N3">
-        <v>1.012693636839688</v>
+        <v>1.016181718337603</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009997964451259</v>
+        <v>1.032576334061871</v>
       </c>
       <c r="D4">
-        <v>1.024761993264154</v>
+        <v>1.036329107520588</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.991328351046125</v>
+        <v>1.032210033316676</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043858060244525</v>
+        <v>1.035467392929081</v>
       </c>
       <c r="J4">
-        <v>1.029149333419408</v>
+        <v>1.037123653241846</v>
       </c>
       <c r="K4">
-        <v>1.034570473422807</v>
+        <v>1.038812240224125</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.001532574367821</v>
+        <v>1.034703620387131</v>
       </c>
       <c r="N4">
-        <v>1.013420901399701</v>
+        <v>1.016329858737484</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01136524562986</v>
+        <v>1.032859166435399</v>
       </c>
       <c r="D5">
-        <v>1.025785784445216</v>
+        <v>1.036544354900518</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.993395225386843</v>
+        <v>1.032664907506443</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04428504642555</v>
+        <v>1.03553904360797</v>
       </c>
       <c r="J5">
-        <v>1.030035093689273</v>
+        <v>1.037308503078192</v>
       </c>
       <c r="K5">
-        <v>1.035365592568691</v>
+        <v>1.038975196801805</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.003347403508171</v>
+        <v>1.035105373752261</v>
       </c>
       <c r="N5">
-        <v>1.013721561881637</v>
+        <v>1.016392014702252</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011593658276469</v>
+        <v>1.032906645494394</v>
       </c>
       <c r="D6">
-        <v>1.025956839788416</v>
+        <v>1.036580487140617</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9937404007475222</v>
+        <v>1.032741272282796</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044356219922894</v>
+        <v>1.035551052966084</v>
       </c>
       <c r="J6">
-        <v>1.03018296820685</v>
+        <v>1.037339522542972</v>
       </c>
       <c r="K6">
-        <v>1.035498323687537</v>
+        <v>1.039002540055828</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.003650425543548</v>
+        <v>1.03517281289291</v>
       </c>
       <c r="N6">
-        <v>1.013771752169881</v>
+        <v>1.01640244380427</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010016312420042</v>
+        <v>1.032580113935969</v>
       </c>
       <c r="D7">
-        <v>1.024775730132663</v>
+        <v>1.036331984253001</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9913560946213031</v>
+        <v>1.032216112083858</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043863800655233</v>
+        <v>1.035468351743621</v>
       </c>
       <c r="J7">
-        <v>1.029161226236703</v>
+        <v>1.037126124397147</v>
       </c>
       <c r="K7">
-        <v>1.034581149971722</v>
+        <v>1.038814418856205</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.00155693882374</v>
+        <v>1.034708989780453</v>
       </c>
       <c r="N7">
-        <v>1.013424938529433</v>
+        <v>1.016330689748438</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003248929553458</v>
+        <v>1.031213842241225</v>
       </c>
       <c r="D8">
-        <v>1.019712390867242</v>
+        <v>1.035292011762318</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.981107705259233</v>
+        <v>1.0300194390763</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041728134608908</v>
+        <v>1.035119615627194</v>
       </c>
       <c r="J8">
-        <v>1.024763305216922</v>
+        <v>1.036231592911139</v>
       </c>
       <c r="K8">
-        <v>1.030631804849113</v>
+        <v>1.038025509234342</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9925498154304647</v>
+        <v>1.03276777405136</v>
       </c>
       <c r="N8">
-        <v>1.011931607015794</v>
+        <v>1.016029730877587</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.990597937922667</v>
+        <v>1.028800801700606</v>
       </c>
       <c r="D9">
-        <v>1.010266637989624</v>
+        <v>1.033454598360479</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9618450862472866</v>
+        <v>1.026142097084033</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037648720428338</v>
+        <v>1.034493530165216</v>
       </c>
       <c r="J9">
-        <v>1.01648713247488</v>
+        <v>1.034645560932856</v>
       </c>
       <c r="K9">
-        <v>1.023195313619186</v>
+        <v>1.036625501984826</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.975589098714749</v>
+        <v>1.029337171548478</v>
       </c>
       <c r="N9">
-        <v>1.009119861226998</v>
+        <v>1.015495461030824</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9816022644101065</v>
+        <v>1.02718828727175</v>
       </c>
       <c r="D10">
-        <v>1.003567626313193</v>
+        <v>1.032226338036214</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9480422356938468</v>
+        <v>1.023552314334695</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034690619806348</v>
+        <v>1.034068324411653</v>
       </c>
       <c r="J10">
-        <v>1.010565327245832</v>
+        <v>1.033581556598046</v>
       </c>
       <c r="K10">
-        <v>1.017872763553154</v>
+        <v>1.03568547386455</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9634175544226854</v>
+        <v>1.027042984623606</v>
       </c>
       <c r="N10">
-        <v>1.007107454725209</v>
+        <v>1.015136604706191</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9775549790502106</v>
+        <v>1.026489115531423</v>
       </c>
       <c r="D11">
-        <v>1.000558799618222</v>
+        <v>1.031693686913018</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9417976977347488</v>
+        <v>1.022429638328499</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033346489008568</v>
+        <v>1.033882343025598</v>
       </c>
       <c r="J11">
-        <v>1.007892253672287</v>
+        <v>1.033119232491233</v>
       </c>
       <c r="K11">
-        <v>1.015470185485438</v>
+        <v>1.035276828447193</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9579075370641461</v>
+        <v>1.026047789439016</v>
       </c>
       <c r="N11">
-        <v>1.00619906004682</v>
+        <v>1.0149805750223</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9760269635173838</v>
+        <v>1.026229267834599</v>
       </c>
       <c r="D12">
-        <v>0.9994237096238552</v>
+        <v>1.031495714132627</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9394340356551835</v>
+        <v>1.02201242400102</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032837068178012</v>
+        <v>1.033812980309371</v>
       </c>
       <c r="J12">
-        <v>1.006881736818505</v>
+        <v>1.032947261942295</v>
       </c>
       <c r="K12">
-        <v>1.014561958782246</v>
+        <v>1.035124796424328</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9558214582331431</v>
+        <v>1.025677851087005</v>
       </c>
       <c r="N12">
-        <v>1.005855665007632</v>
+        <v>1.014922521553494</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9763558761236468</v>
+        <v>1.026285012614216</v>
       </c>
       <c r="D13">
-        <v>0.9996680025826657</v>
+        <v>1.031538185527658</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9399431164090037</v>
+        <v>1.022101927209492</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032946811252653</v>
+        <v>1.033827871574394</v>
       </c>
       <c r="J13">
-        <v>1.007099315215599</v>
+        <v>1.03298416122673</v>
       </c>
       <c r="K13">
-        <v>1.01475751060294</v>
+        <v>1.035157418825901</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.956270772352507</v>
+        <v>1.025757216862181</v>
       </c>
       <c r="N13">
-        <v>1.005929602099942</v>
+        <v>1.014934978622599</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9774291874253157</v>
+        <v>1.026467639396148</v>
       </c>
       <c r="D14">
-        <v>1.000465336916146</v>
+        <v>1.031677324926496</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.941603242157977</v>
+        <v>1.022395155448834</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033304591212418</v>
+        <v>1.033876615217935</v>
       </c>
       <c r="J14">
-        <v>1.00780909124794</v>
+        <v>1.033105022316078</v>
       </c>
       <c r="K14">
-        <v>1.015395440345016</v>
+        <v>1.035264266396871</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9577359264456659</v>
+        <v>1.02601721595144</v>
       </c>
       <c r="N14">
-        <v>1.006170799414531</v>
+        <v>1.014975778288496</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9780871624000146</v>
+        <v>1.026580142600183</v>
       </c>
       <c r="D15">
-        <v>1.000954245576823</v>
+        <v>1.031763037039006</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9426201221550139</v>
+        <v>1.022575795923615</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033523665514662</v>
+        <v>1.033906610532069</v>
       </c>
       <c r="J15">
-        <v>1.008244032929937</v>
+        <v>1.033179456592071</v>
       </c>
       <c r="K15">
-        <v>1.015786360970175</v>
+        <v>1.035330066477942</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9586333241390105</v>
+        <v>1.026177372804031</v>
       </c>
       <c r="N15">
-        <v>1.006318603762505</v>
+        <v>1.01500090342592</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9818675139619726</v>
+        <v>1.027234668921427</v>
       </c>
       <c r="D16">
-        <v>1.003764932177291</v>
+        <v>1.032261671238739</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9484506989833263</v>
+        <v>1.023626794784731</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034778439065174</v>
+        <v>1.034080628030412</v>
       </c>
       <c r="J16">
-        <v>1.010740331981881</v>
+        <v>1.033612205584587</v>
       </c>
       <c r="K16">
-        <v>1.018030061772308</v>
+        <v>1.035712560330607</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9637779058999557</v>
+        <v>1.027108993858534</v>
       </c>
       <c r="N16">
-        <v>1.007166927678735</v>
+        <v>1.015146946297096</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9841968840479197</v>
+        <v>1.027644981865159</v>
       </c>
       <c r="D17">
-        <v>1.005498228116288</v>
+        <v>1.032574234518626</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9520337491010745</v>
+        <v>1.024285708273516</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035548156250812</v>
+        <v>1.03418928484978</v>
       </c>
       <c r="J17">
-        <v>1.012276197197758</v>
+        <v>1.033883227016275</v>
       </c>
       <c r="K17">
-        <v>1.019410535408803</v>
+        <v>1.035952057329716</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9669385318510195</v>
+        <v>1.027692887976928</v>
       </c>
       <c r="N17">
-        <v>1.00768887113918</v>
+        <v>1.015238382712772</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9855410243095115</v>
+        <v>1.027884219715903</v>
       </c>
       <c r="D18">
-        <v>1.006498889714974</v>
+        <v>1.032756469683875</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.95409813242762</v>
+        <v>1.024669918229219</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035991063709346</v>
+        <v>1.034252482694195</v>
       </c>
       <c r="J18">
-        <v>1.013161627178295</v>
+        <v>1.034041154675939</v>
       </c>
       <c r="K18">
-        <v>1.020206378918866</v>
+        <v>1.03609159692168</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9687592000575491</v>
+        <v>1.028033290719466</v>
       </c>
       <c r="N18">
-        <v>1.007989771632465</v>
+        <v>1.015291654070737</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9859969268768752</v>
+        <v>1.0279657783271</v>
       </c>
       <c r="D19">
-        <v>1.006838370789564</v>
+        <v>1.03281859402451</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.954797811273007</v>
+        <v>1.024800903304189</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036141075048841</v>
+        <v>1.034274001047112</v>
       </c>
       <c r="J19">
-        <v>1.01346180535716</v>
+        <v>1.034094977769601</v>
       </c>
       <c r="K19">
-        <v>1.020476184078496</v>
+        <v>1.036139150078138</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.969376217914364</v>
+        <v>1.028149330204351</v>
       </c>
       <c r="N19">
-        <v>1.00809178230382</v>
+        <v>1.01530980773535</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9839484813326687</v>
+        <v>1.027600968574318</v>
       </c>
       <c r="D20">
-        <v>1.005313339925394</v>
+        <v>1.032540707483564</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9516519911542805</v>
+        <v>1.024215025897543</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035466203678239</v>
+        <v>1.034177645608928</v>
       </c>
       <c r="J20">
-        <v>1.012112499214948</v>
+        <v>1.033854164981658</v>
       </c>
       <c r="K20">
-        <v>1.019263399678715</v>
+        <v>1.035926377606518</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9666018155225502</v>
+        <v>1.027630259600145</v>
       </c>
       <c r="N20">
-        <v>1.007633240591551</v>
+        <v>1.015228578863128</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9771138207960742</v>
+        <v>1.026413864361866</v>
       </c>
       <c r="D21">
-        <v>1.00023103493566</v>
+        <v>1.031636355231889</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9411156297590921</v>
+        <v>1.022308812708431</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033199519726205</v>
+        <v>1.033862269192081</v>
       </c>
       <c r="J21">
-        <v>1.007600577101436</v>
+        <v>1.033069438455424</v>
       </c>
       <c r="K21">
-        <v>1.015208031611199</v>
+        <v>1.035232809168076</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9573055926823437</v>
+        <v>1.025940660458263</v>
       </c>
       <c r="N21">
-        <v>1.006099941398439</v>
+        <v>1.014963766488714</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9726727826207308</v>
+        <v>1.02566664933088</v>
       </c>
       <c r="D22">
-        <v>0.9969337466877125</v>
+        <v>1.031067044037728</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.934233144945233</v>
+        <v>1.021109124523065</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031715257404464</v>
+        <v>1.033662353622409</v>
       </c>
       <c r="J22">
-        <v>1.004661081682064</v>
+        <v>1.032574644063289</v>
       </c>
       <c r="K22">
-        <v>1.012566192367689</v>
+        <v>1.034795328958426</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9512306262920267</v>
+        <v>1.024876726540598</v>
       </c>
       <c r="N22">
-        <v>1.005101071528768</v>
+        <v>1.014796706380914</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9750413582669115</v>
+        <v>1.026062842227507</v>
       </c>
       <c r="D23">
-        <v>0.9986918059544585</v>
+        <v>1.031368914321541</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9379075750464025</v>
+        <v>1.0217452166908</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032507932542768</v>
+        <v>1.033768487044385</v>
       </c>
       <c r="J23">
-        <v>1.006229556318139</v>
+        <v>1.032837077823001</v>
       </c>
       <c r="K23">
-        <v>1.013975809515392</v>
+        <v>1.035027379285845</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9544741473192923</v>
+        <v>1.025440894079257</v>
       </c>
       <c r="N23">
-        <v>1.005634044650532</v>
+        <v>1.014885321571867</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9840607686314961</v>
+        <v>1.027620856565632</v>
       </c>
       <c r="D24">
-        <v>1.005396914804922</v>
+        <v>1.03255585714725</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9518245698018075</v>
+        <v>1.024246964598998</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035503253183723</v>
+        <v>1.034182905436294</v>
       </c>
       <c r="J24">
-        <v>1.012186499377116</v>
+        <v>1.033867297341168</v>
       </c>
       <c r="K24">
-        <v>1.019329912836437</v>
+        <v>1.03593798164642</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9667540335649324</v>
+        <v>1.027658559199801</v>
       </c>
       <c r="N24">
-        <v>1.007658388551239</v>
+        <v>1.015233008992053</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.993961685567308</v>
+        <v>1.029425294645133</v>
       </c>
       <c r="D25">
-        <v>1.012775462577273</v>
+        <v>1.033930194291949</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9669821558132778</v>
+        <v>1.027145307509501</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038743318573964</v>
+        <v>1.034656762987444</v>
       </c>
       <c r="J25">
-        <v>1.018693986002889</v>
+        <v>1.0350567534524</v>
       </c>
       <c r="K25">
-        <v>1.025178641011846</v>
+        <v>1.036988611461288</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9801156107216666</v>
+        <v>1.030225286770668</v>
       </c>
       <c r="N25">
-        <v>1.009869745978237</v>
+        <v>1.01563405239268</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_196/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_196/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030861739642096</v>
+        <v>1.001459919766684</v>
       </c>
       <c r="D2">
-        <v>1.035023953272568</v>
+        <v>1.018375021364285</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.02945350125632</v>
+        <v>0.9783926770636292</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035029052895697</v>
+        <v>1.041157740955251</v>
       </c>
       <c r="J2">
-        <v>1.036000645282986</v>
+        <v>1.023597052395307</v>
       </c>
       <c r="K2">
-        <v>1.037821745724467</v>
+        <v>1.029584163519389</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.032267367746458</v>
+        <v>0.9901614760325763</v>
       </c>
       <c r="N2">
-        <v>1.015951985150247</v>
+        <v>1.011535482567928</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031903166962125</v>
+        <v>1.006697490468494</v>
       </c>
       <c r="D3">
-        <v>1.035816745775685</v>
+        <v>1.022291750830017</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.031127590581169</v>
+        <v>0.9863342050760034</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035296101574965</v>
+        <v>1.0428209441192</v>
       </c>
       <c r="J3">
-        <v>1.036683236295808</v>
+        <v>1.027007225489404</v>
       </c>
       <c r="K3">
-        <v>1.03842389133978</v>
+        <v>1.032647133402279</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.03374727638474</v>
+        <v>0.9971449810183722</v>
       </c>
       <c r="N3">
-        <v>1.016181718337603</v>
+        <v>1.012693636839688</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032576334061871</v>
+        <v>1.009997964451259</v>
       </c>
       <c r="D4">
-        <v>1.036329107520588</v>
+        <v>1.024761993264153</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.032210033316676</v>
+        <v>0.991328351046125</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035467392929081</v>
+        <v>1.043858060244525</v>
       </c>
       <c r="J4">
-        <v>1.037123653241846</v>
+        <v>1.029149333419408</v>
       </c>
       <c r="K4">
-        <v>1.038812240224125</v>
+        <v>1.034570473422807</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.034703620387131</v>
+        <v>1.001532574367821</v>
       </c>
       <c r="N4">
-        <v>1.016329858737484</v>
+        <v>1.013420901399701</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032859166435399</v>
+        <v>1.011365245629859</v>
       </c>
       <c r="D5">
-        <v>1.036544354900518</v>
+        <v>1.025785784445215</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.032664907506443</v>
+        <v>0.993395225386842</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03553904360797</v>
+        <v>1.044285046425549</v>
       </c>
       <c r="J5">
-        <v>1.037308503078192</v>
+        <v>1.030035093689272</v>
       </c>
       <c r="K5">
-        <v>1.038975196801805</v>
+        <v>1.03536559256869</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.035105373752261</v>
+        <v>1.00334740350817</v>
       </c>
       <c r="N5">
-        <v>1.016392014702252</v>
+        <v>1.013721561881636</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032906645494394</v>
+        <v>1.011593658276469</v>
       </c>
       <c r="D6">
-        <v>1.036580487140617</v>
+        <v>1.025956839788417</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.032741272282796</v>
+        <v>0.9937404007475227</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035551052966084</v>
+        <v>1.044356219922894</v>
       </c>
       <c r="J6">
-        <v>1.037339522542972</v>
+        <v>1.03018296820685</v>
       </c>
       <c r="K6">
-        <v>1.039002540055828</v>
+        <v>1.035498323687537</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.03517281289291</v>
+        <v>1.003650425543549</v>
       </c>
       <c r="N6">
-        <v>1.01640244380427</v>
+        <v>1.013771752169881</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032580113935969</v>
+        <v>1.010016312420043</v>
       </c>
       <c r="D7">
-        <v>1.036331984253001</v>
+        <v>1.024775730132664</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.032216112083858</v>
+        <v>0.9913560946213038</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035468351743621</v>
+        <v>1.043863800655233</v>
       </c>
       <c r="J7">
-        <v>1.037126124397147</v>
+        <v>1.029161226236704</v>
       </c>
       <c r="K7">
-        <v>1.038814418856205</v>
+        <v>1.034581149971723</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.034708989780453</v>
+        <v>1.001556938823741</v>
       </c>
       <c r="N7">
-        <v>1.016330689748438</v>
+        <v>1.013424938529434</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031213842241225</v>
+        <v>1.003248929553458</v>
       </c>
       <c r="D8">
-        <v>1.035292011762318</v>
+        <v>1.019712390867241</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.0300194390763</v>
+        <v>0.9811077052592317</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035119615627194</v>
+        <v>1.041728134608908</v>
       </c>
       <c r="J8">
-        <v>1.036231592911139</v>
+        <v>1.024763305216921</v>
       </c>
       <c r="K8">
-        <v>1.038025509234342</v>
+        <v>1.030631804849112</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.03276777405136</v>
+        <v>0.9925498154304635</v>
       </c>
       <c r="N8">
-        <v>1.016029730877587</v>
+        <v>1.011931607015794</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028800801700606</v>
+        <v>0.9905979379226683</v>
       </c>
       <c r="D9">
-        <v>1.033454598360479</v>
+        <v>1.010266637989625</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.026142097084033</v>
+        <v>0.9618450862472876</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034493530165216</v>
+        <v>1.037648720428339</v>
       </c>
       <c r="J9">
-        <v>1.034645560932856</v>
+        <v>1.016487132474881</v>
       </c>
       <c r="K9">
-        <v>1.036625501984826</v>
+        <v>1.023195313619187</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.029337171548478</v>
+        <v>0.9755890987147499</v>
       </c>
       <c r="N9">
-        <v>1.015495461030824</v>
+        <v>1.009119861226999</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02718828727175</v>
+        <v>0.9816022644101063</v>
       </c>
       <c r="D10">
-        <v>1.032226338036214</v>
+        <v>1.003567626313193</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.023552314334695</v>
+        <v>0.948042235693847</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034068324411653</v>
+        <v>1.034690619806348</v>
       </c>
       <c r="J10">
-        <v>1.033581556598046</v>
+        <v>1.010565327245832</v>
       </c>
       <c r="K10">
-        <v>1.03568547386455</v>
+        <v>1.017872763553154</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.027042984623606</v>
+        <v>0.9634175544226854</v>
       </c>
       <c r="N10">
-        <v>1.015136604706191</v>
+        <v>1.007107454725209</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026489115531423</v>
+        <v>0.9775549790502112</v>
       </c>
       <c r="D11">
-        <v>1.031693686913018</v>
+        <v>1.000558799618222</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.022429638328499</v>
+        <v>0.9417976977347488</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033882343025598</v>
+        <v>1.033346489008568</v>
       </c>
       <c r="J11">
-        <v>1.033119232491233</v>
+        <v>1.007892253672287</v>
       </c>
       <c r="K11">
-        <v>1.035276828447193</v>
+        <v>1.015470185485439</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.026047789439016</v>
+        <v>0.9579075370641461</v>
       </c>
       <c r="N11">
-        <v>1.0149805750223</v>
+        <v>1.00619906004682</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026229267834599</v>
+        <v>0.9760269635173821</v>
       </c>
       <c r="D12">
-        <v>1.031495714132627</v>
+        <v>0.9994237096238535</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.02201242400102</v>
+        <v>0.9394340356551807</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033812980309371</v>
+        <v>1.032837068178011</v>
       </c>
       <c r="J12">
-        <v>1.032947261942295</v>
+        <v>1.006881736818504</v>
       </c>
       <c r="K12">
-        <v>1.035124796424328</v>
+        <v>1.014561958782245</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.025677851087005</v>
+        <v>0.9558214582331407</v>
       </c>
       <c r="N12">
-        <v>1.014922521553494</v>
+        <v>1.005855665007631</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026285012614216</v>
+        <v>0.9763558761236465</v>
       </c>
       <c r="D13">
-        <v>1.031538185527658</v>
+        <v>0.9996680025826655</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.022101927209492</v>
+        <v>0.9399431164090034</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033827871574394</v>
+        <v>1.032946811252653</v>
       </c>
       <c r="J13">
-        <v>1.03298416122673</v>
+        <v>1.007099315215599</v>
       </c>
       <c r="K13">
-        <v>1.035157418825901</v>
+        <v>1.01475751060294</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.025757216862181</v>
+        <v>0.9562707723525069</v>
       </c>
       <c r="N13">
-        <v>1.014934978622599</v>
+        <v>1.005929602099942</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026467639396148</v>
+        <v>0.9774291874253154</v>
       </c>
       <c r="D14">
-        <v>1.031677324926496</v>
+        <v>1.000465336916146</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.022395155448834</v>
+        <v>0.9416032421579769</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033876615217935</v>
+        <v>1.033304591212418</v>
       </c>
       <c r="J14">
-        <v>1.033105022316078</v>
+        <v>1.00780909124794</v>
       </c>
       <c r="K14">
-        <v>1.035264266396871</v>
+        <v>1.015395440345016</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.02601721595144</v>
+        <v>0.9577359264456661</v>
       </c>
       <c r="N14">
-        <v>1.014975778288496</v>
+        <v>1.006170799414531</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026580142600183</v>
+        <v>0.9780871624000149</v>
       </c>
       <c r="D15">
-        <v>1.031763037039006</v>
+        <v>1.000954245576823</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.022575795923615</v>
+        <v>0.9426201221550146</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033906610532069</v>
+        <v>1.033523665514662</v>
       </c>
       <c r="J15">
-        <v>1.033179456592071</v>
+        <v>1.008244032929937</v>
       </c>
       <c r="K15">
-        <v>1.035330066477942</v>
+        <v>1.015786360970175</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.026177372804031</v>
+        <v>0.9586333241390111</v>
       </c>
       <c r="N15">
-        <v>1.01500090342592</v>
+        <v>1.006318603762505</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027234668921427</v>
+        <v>0.9818675139619712</v>
       </c>
       <c r="D16">
-        <v>1.032261671238739</v>
+        <v>1.00376493217729</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.023626794784731</v>
+        <v>0.9484506989833255</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034080628030412</v>
+        <v>1.034778439065174</v>
       </c>
       <c r="J16">
-        <v>1.033612205584587</v>
+        <v>1.01074033198188</v>
       </c>
       <c r="K16">
-        <v>1.035712560330607</v>
+        <v>1.018030061772307</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.027108993858534</v>
+        <v>0.9637779058999548</v>
       </c>
       <c r="N16">
-        <v>1.015146946297096</v>
+        <v>1.007166927678734</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027644981865159</v>
+        <v>0.9841968840479201</v>
       </c>
       <c r="D17">
-        <v>1.032574234518626</v>
+        <v>1.005498228116289</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.024285708273516</v>
+        <v>0.9520337491010749</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03418928484978</v>
+        <v>1.035548156250812</v>
       </c>
       <c r="J17">
-        <v>1.033883227016275</v>
+        <v>1.012276197197758</v>
       </c>
       <c r="K17">
-        <v>1.035952057329716</v>
+        <v>1.019410535408804</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.027692887976928</v>
+        <v>0.9669385318510197</v>
       </c>
       <c r="N17">
-        <v>1.015238382712772</v>
+        <v>1.00768887113918</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027884219715903</v>
+        <v>0.9855410243095115</v>
       </c>
       <c r="D18">
-        <v>1.032756469683875</v>
+        <v>1.006498889714974</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.024669918229219</v>
+        <v>0.95409813242762</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034252482694195</v>
+        <v>1.035991063709346</v>
       </c>
       <c r="J18">
-        <v>1.034041154675939</v>
+        <v>1.013161627178295</v>
       </c>
       <c r="K18">
-        <v>1.03609159692168</v>
+        <v>1.020206378918866</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.028033290719466</v>
+        <v>0.9687592000575491</v>
       </c>
       <c r="N18">
-        <v>1.015291654070737</v>
+        <v>1.007989771632465</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.0279657783271</v>
+        <v>0.9859969268768756</v>
       </c>
       <c r="D19">
-        <v>1.03281859402451</v>
+        <v>1.006838370789565</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.024800903304189</v>
+        <v>0.9547978112730067</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034274001047112</v>
+        <v>1.036141075048841</v>
       </c>
       <c r="J19">
-        <v>1.034094977769601</v>
+        <v>1.013461805357161</v>
       </c>
       <c r="K19">
-        <v>1.036139150078138</v>
+        <v>1.020476184078496</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.028149330204351</v>
+        <v>0.9693762179143637</v>
       </c>
       <c r="N19">
-        <v>1.01530980773535</v>
+        <v>1.00809178230382</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027600968574318</v>
+        <v>0.9839484813326689</v>
       </c>
       <c r="D20">
-        <v>1.032540707483564</v>
+        <v>1.005313339925393</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.024215025897543</v>
+        <v>0.9516519911542799</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034177645608928</v>
+        <v>1.035466203678239</v>
       </c>
       <c r="J20">
-        <v>1.033854164981658</v>
+        <v>1.012112499214948</v>
       </c>
       <c r="K20">
-        <v>1.035926377606518</v>
+        <v>1.019263399678715</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.027630259600145</v>
+        <v>0.9666018155225499</v>
       </c>
       <c r="N20">
-        <v>1.015228578863128</v>
+        <v>1.007633240591551</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026413864361866</v>
+        <v>0.9771138207960745</v>
       </c>
       <c r="D21">
-        <v>1.031636355231889</v>
+        <v>1.00023103493566</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.022308812708431</v>
+        <v>0.9411156297590926</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033862269192081</v>
+        <v>1.033199519726205</v>
       </c>
       <c r="J21">
-        <v>1.033069438455424</v>
+        <v>1.007600577101436</v>
       </c>
       <c r="K21">
-        <v>1.035232809168076</v>
+        <v>1.0152080316112</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.025940660458263</v>
+        <v>0.9573055926823442</v>
       </c>
       <c r="N21">
-        <v>1.014963766488714</v>
+        <v>1.00609994139844</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02566664933088</v>
+        <v>0.972672782620732</v>
       </c>
       <c r="D22">
-        <v>1.031067044037728</v>
+        <v>0.9969337466877136</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.021109124523065</v>
+        <v>0.9342331449452348</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033662353622409</v>
+        <v>1.031715257404465</v>
       </c>
       <c r="J22">
-        <v>1.032574644063289</v>
+        <v>1.004661081682065</v>
       </c>
       <c r="K22">
-        <v>1.034795328958426</v>
+        <v>1.01256619236769</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.024876726540598</v>
+        <v>0.9512306262920283</v>
       </c>
       <c r="N22">
-        <v>1.014796706380914</v>
+        <v>1.005101071528768</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026062842227507</v>
+        <v>0.9750413582669121</v>
       </c>
       <c r="D23">
-        <v>1.031368914321541</v>
+        <v>0.9986918059544589</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.0217452166908</v>
+        <v>0.9379075750464032</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033768487044385</v>
+        <v>1.032507932542768</v>
       </c>
       <c r="J23">
-        <v>1.032837077823001</v>
+        <v>1.006229556318139</v>
       </c>
       <c r="K23">
-        <v>1.035027379285845</v>
+        <v>1.013975809515393</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.025440894079257</v>
+        <v>0.954474147319293</v>
       </c>
       <c r="N23">
-        <v>1.014885321571867</v>
+        <v>1.005634044650532</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027620856565632</v>
+        <v>0.9840607686314966</v>
       </c>
       <c r="D24">
-        <v>1.03255585714725</v>
+        <v>1.005396914804923</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.024246964598998</v>
+        <v>0.9518245698018079</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034182905436294</v>
+        <v>1.035503253183723</v>
       </c>
       <c r="J24">
-        <v>1.033867297341168</v>
+        <v>1.012186499377116</v>
       </c>
       <c r="K24">
-        <v>1.03593798164642</v>
+        <v>1.019329912836437</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.027658559199801</v>
+        <v>0.9667540335649326</v>
       </c>
       <c r="N24">
-        <v>1.015233008992053</v>
+        <v>1.007658388551239</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029425294645133</v>
+        <v>0.9939616855673081</v>
       </c>
       <c r="D25">
-        <v>1.033930194291949</v>
+        <v>1.012775462577273</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.027145307509501</v>
+        <v>0.9669821558132777</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034656762987444</v>
+        <v>1.038743318573964</v>
       </c>
       <c r="J25">
-        <v>1.0350567534524</v>
+        <v>1.018693986002889</v>
       </c>
       <c r="K25">
-        <v>1.036988611461288</v>
+        <v>1.025178641011846</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.030225286770668</v>
+        <v>0.9801156107216668</v>
       </c>
       <c r="N25">
-        <v>1.01563405239268</v>
+        <v>1.009869745978237</v>
       </c>
     </row>
   </sheetData>
